--- a/Traceability Record/MOBILE/TR mob .xlsx
+++ b/Traceability Record/MOBILE/TR mob .xlsx
@@ -10,11 +10,12 @@
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
     <sheet name="URS-SRS (2)" sheetId="9" r:id="rId2"/>
     <sheet name="URS-SRS (3)" sheetId="10" r:id="rId3"/>
-    <sheet name="URS-AD" sheetId="1" r:id="rId4"/>
-    <sheet name="URS-SQ" sheetId="5" r:id="rId5"/>
-    <sheet name="URS-UI" sheetId="7" r:id="rId6"/>
-    <sheet name="URS-DB" sheetId="8" r:id="rId7"/>
-    <sheet name="URS-SRS (4)" sheetId="11" r:id="rId8"/>
+    <sheet name="URS-SRS (5)" sheetId="12" r:id="rId4"/>
+    <sheet name="URS-AD" sheetId="1" r:id="rId5"/>
+    <sheet name="URS-SQ" sheetId="5" r:id="rId6"/>
+    <sheet name="URS-UI" sheetId="7" r:id="rId7"/>
+    <sheet name="URS-DB" sheetId="8" r:id="rId8"/>
+    <sheet name="URS-SRS (4)" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="275">
   <si>
     <t>No</t>
   </si>
@@ -663,6 +664,195 @@
   <si>
     <t>M-AD-17</t>
   </si>
+  <si>
+    <t>M-URS-44</t>
+  </si>
+  <si>
+    <t>M-URS-45</t>
+  </si>
+  <si>
+    <t>M-URS-46</t>
+  </si>
+  <si>
+    <t>M-SRS-77</t>
+  </si>
+  <si>
+    <t>M-SRS-78</t>
+  </si>
+  <si>
+    <t>M-SRS-79</t>
+  </si>
+  <si>
+    <t>M-SRS-80</t>
+  </si>
+  <si>
+    <t>M-SRS-81</t>
+  </si>
+  <si>
+    <t>M-SRS-82</t>
+  </si>
+  <si>
+    <t>M-SRS-83</t>
+  </si>
+  <si>
+    <t>M-SRS-84</t>
+  </si>
+  <si>
+    <t>M-SRS-85</t>
+  </si>
+  <si>
+    <t>M-SRS-86</t>
+  </si>
+  <si>
+    <t>M-SRS-87</t>
+  </si>
+  <si>
+    <t>M-SRS-88</t>
+  </si>
+  <si>
+    <t>M-SRS-89</t>
+  </si>
+  <si>
+    <t>M-SRS-90</t>
+  </si>
+  <si>
+    <t>M-SRS-91</t>
+  </si>
+  <si>
+    <t>M-SRS-92</t>
+  </si>
+  <si>
+    <t>M-SRS-93</t>
+  </si>
+  <si>
+    <t>M-SRS-94</t>
+  </si>
+  <si>
+    <t>M-SRS-95</t>
+  </si>
+  <si>
+    <t>M-SRS-96</t>
+  </si>
+  <si>
+    <t>M-SRS-97</t>
+  </si>
+  <si>
+    <t>M-SRS-98</t>
+  </si>
+  <si>
+    <t>M-SRS-99</t>
+  </si>
+  <si>
+    <t>M-SRS-100</t>
+  </si>
+  <si>
+    <t>M-SRS-101</t>
+  </si>
+  <si>
+    <t>M-SRS-102</t>
+  </si>
+  <si>
+    <t>M-SRS-103</t>
+  </si>
+  <si>
+    <t>M-SRS-104</t>
+  </si>
+  <si>
+    <t>M-SRS-105</t>
+  </si>
+  <si>
+    <t>M-SRS-106</t>
+  </si>
+  <si>
+    <t>M-SRS-107</t>
+  </si>
+  <si>
+    <t>M-SRS-108</t>
+  </si>
+  <si>
+    <t>M-SRS-109</t>
+  </si>
+  <si>
+    <t>M-SRS-110</t>
+  </si>
+  <si>
+    <t>M-SRS-111</t>
+  </si>
+  <si>
+    <t>M-SRS-112</t>
+  </si>
+  <si>
+    <t>M-SRS-113</t>
+  </si>
+  <si>
+    <t>M-SRS-114</t>
+  </si>
+  <si>
+    <t>M-SRS-115</t>
+  </si>
+  <si>
+    <t>M-SRS-116</t>
+  </si>
+  <si>
+    <t>M-SRS-117</t>
+  </si>
+  <si>
+    <t>M-SRS-118</t>
+  </si>
+  <si>
+    <t>M-SRS-119</t>
+  </si>
+  <si>
+    <t>M-SRS-120</t>
+  </si>
+  <si>
+    <t>M-SRS-121</t>
+  </si>
+  <si>
+    <t>M-SRS-122</t>
+  </si>
+  <si>
+    <t>M-SRS-123</t>
+  </si>
+  <si>
+    <t>M-SRS-124</t>
+  </si>
+  <si>
+    <t>M-SRS-125</t>
+  </si>
+  <si>
+    <t>M-SRS-126</t>
+  </si>
+  <si>
+    <t>M-SRS-127</t>
+  </si>
+  <si>
+    <t>M-SRS-128</t>
+  </si>
+  <si>
+    <t>M-SRS-129</t>
+  </si>
+  <si>
+    <t>M-SRS-130</t>
+  </si>
+  <si>
+    <t>M-SRS-131</t>
+  </si>
+  <si>
+    <t>M-SRS-132</t>
+  </si>
+  <si>
+    <t>M-SRS-133</t>
+  </si>
+  <si>
+    <t>M-SRS-134</t>
+  </si>
+  <si>
+    <t>M-SRS-135</t>
+  </si>
+  <si>
+    <t>M-SRS-136</t>
+  </si>
 </sst>
 </file>
 
@@ -742,8 +932,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -806,7 +998,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -823,6 +1015,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -839,6 +1032,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1171,19 +1365,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS83"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AT25" sqref="AT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="45" width="3.5" customWidth="1"/>
+    <col min="3" max="54" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="57">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="57">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1316,9 +1510,26 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45">
+      <c r="AS1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1369,7 +1580,7 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:54">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1420,7 +1631,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:54">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1471,7 +1682,7 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:54">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1522,7 +1733,7 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:54">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1573,7 +1784,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:54">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1624,7 +1835,7 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:54">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1675,7 +1886,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:54">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1726,7 +1937,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:54">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1777,7 +1988,7 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:54">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1828,7 +2039,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:54">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1879,7 +2090,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:54">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1930,7 +2141,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:54">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1981,7 +2192,7 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:54">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2032,7 +2243,7 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:54">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2083,7 +2294,7 @@
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:46">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2134,7 +2345,7 @@
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:46">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2185,7 +2396,7 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:46">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2236,7 +2447,7 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:46">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2262,32 +2473,33 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-    </row>
-    <row r="21" spans="1:45">
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2316,29 +2528,29 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="AA21" s="4"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
+      <c r="AE21" s="4"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:46">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2367,9 +2579,9 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="4"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
+      <c r="AA22" s="4"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -2389,7 +2601,7 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:46">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2440,7 +2652,7 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:46">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2491,7 +2703,7 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:46">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2542,7 +2754,7 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:46">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2593,7 +2805,7 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:46">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2626,7 +2838,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="AC27" s="4"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -2644,7 +2856,7 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:46">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2695,7 +2907,7 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:46">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2746,7 +2958,7 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:46">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2776,7 +2988,7 @@
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="Z30" s="4"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -2788,8 +3000,8 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
@@ -2797,7 +3009,7 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:46">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2848,7 +3060,7 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:46">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3875,6 +4087,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -3888,19 +4101,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS82"/>
+  <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="45" width="3.5" customWidth="1"/>
+    <col min="3" max="54" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="57">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="57">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4033,9 +4246,20 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45">
+      <c r="AS1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>39</v>
       </c>
@@ -4067,7 +4291,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="4"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -4086,7 +4310,7 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>40</v>
       </c>
@@ -4137,7 +4361,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>41</v>
       </c>
@@ -4188,7 +4412,7 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>42</v>
       </c>
@@ -4239,7 +4463,7 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
         <v>43</v>
       </c>
@@ -4290,7 +4514,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
         <v>44</v>
       </c>
@@ -4341,7 +4565,7 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
         <v>45</v>
       </c>
@@ -4392,7 +4616,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
         <v>46</v>
       </c>
@@ -4443,7 +4667,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
         <v>47</v>
       </c>
@@ -4494,7 +4718,7 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -4545,7 +4769,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
         <v>49</v>
       </c>
@@ -4596,7 +4820,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -4647,7 +4871,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:48">
       <c r="A14" s="1">
         <v>51</v>
       </c>
@@ -4698,7 +4922,7 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:48">
       <c r="A15" s="1">
         <v>52</v>
       </c>
@@ -4734,10 +4958,10 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -4745,11 +4969,11 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
+      <c r="AQ15" s="4"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:48">
       <c r="A16" s="1">
         <v>53</v>
       </c>
@@ -4785,10 +5009,10 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -5288,9 +5512,9 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
+      <c r="Y26" s="4"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="4"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -5390,9 +5614,9 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
+      <c r="AA28" s="4"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -6601,6 +6825,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -6614,19 +6839,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS82"/>
+  <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Z22"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="45" width="3.5" customWidth="1"/>
+    <col min="3" max="54" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="57">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="57">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6759,14 +6984,25 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45">
+      <c r="AS1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6782,10 +7018,10 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -6812,12 +7048,12 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6833,13 +7069,13 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="4"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="U3" s="4"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="W3" s="4"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="1"/>
@@ -6863,12 +7099,12 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6884,16 +7120,16 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="4"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -6914,12 +7150,12 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6935,13 +7171,13 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="4"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="U5" s="4"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="W5" s="4"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="1"/>
@@ -6965,12 +7201,12 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6986,12 +7222,12 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -7016,12 +7252,12 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7037,12 +7273,12 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="V7" s="4"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -7067,12 +7303,12 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7088,13 +7324,13 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="1"/>
@@ -7118,12 +7354,12 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7139,20 +7375,20 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="4"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="X9" s="4"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -7169,12 +7405,12 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7190,16 +7426,16 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="X10" s="4"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="1"/>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -7220,12 +7456,12 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -7242,20 +7478,20 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="AA11" s="4"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="AE11" s="4"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -7271,12 +7507,12 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -7294,15 +7530,15 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -7322,12 +7558,12 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -7345,15 +7581,15 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="Y13" s="4"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="AA13" s="4"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -7373,12 +7609,12 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:48">
       <c r="A14" s="1">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -7396,15 +7632,15 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="4"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="Y14" s="4"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -7424,12 +7660,12 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:48">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -7448,14 +7684,14 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="4"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="Y15" s="4"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="4"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -7475,12 +7711,12 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:48">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -7499,14 +7735,14 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="4"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="Y16" s="4"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="4"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -7528,10 +7764,10 @@
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="1">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7550,14 +7786,14 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="4"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="Y17" s="4"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="4"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -7578,6 +7814,2111 @@
       <c r="AS17" s="1"/>
     </row>
     <row r="18" spans="1:45">
+      <c r="A18" s="1">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" s="1">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" s="1">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" s="1">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" s="1">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" s="1">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+    </row>
+    <row r="24" spans="1:45">
+      <c r="A24" s="1">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="AB24" s="7"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25" s="1">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="AB25" s="7"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26" s="1">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="AB26" s="7"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" s="1">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28" s="1">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" s="1">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC29" s="7"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" s="1">
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD30" s="7"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" s="1">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE31" s="7"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" s="1">
+        <v>106</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE32" s="7"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" s="1">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG33" s="7"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+    </row>
+    <row r="34" spans="1:45">
+      <c r="A34" s="1">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG34" s="7"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="A35" s="1">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG35" s="7"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+    </row>
+    <row r="36" spans="1:45">
+      <c r="A36" s="1">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG36" s="7"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+    </row>
+    <row r="39" spans="1:45">
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+    </row>
+    <row r="40" spans="1:45">
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+    </row>
+    <row r="41" spans="1:45">
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+    </row>
+    <row r="42" spans="1:45">
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+    </row>
+    <row r="43" spans="1:45">
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+    </row>
+    <row r="45" spans="1:45">
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+    </row>
+    <row r="46" spans="1:45">
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+    </row>
+    <row r="47" spans="1:45">
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+    </row>
+    <row r="49" spans="36:45">
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+    </row>
+    <row r="50" spans="36:45">
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+    </row>
+    <row r="51" spans="36:45">
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+    </row>
+    <row r="52" spans="36:45">
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+    </row>
+    <row r="53" spans="36:45">
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+    </row>
+    <row r="54" spans="36:45">
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+    </row>
+    <row r="55" spans="36:45">
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+    </row>
+    <row r="56" spans="36:45">
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+    </row>
+    <row r="57" spans="36:45">
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+    </row>
+    <row r="58" spans="36:45">
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+    </row>
+    <row r="59" spans="36:45">
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+    </row>
+    <row r="60" spans="36:45">
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+    </row>
+    <row r="61" spans="36:45">
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+    </row>
+    <row r="62" spans="36:45">
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+    </row>
+    <row r="63" spans="36:45">
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+    </row>
+    <row r="64" spans="36:45">
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+    </row>
+    <row r="65" spans="36:45">
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+    </row>
+    <row r="66" spans="36:45">
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+    </row>
+    <row r="67" spans="36:45">
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+    </row>
+    <row r="68" spans="36:45">
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+    </row>
+    <row r="69" spans="36:45">
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+    </row>
+    <row r="70" spans="36:45">
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+    </row>
+    <row r="71" spans="36:45">
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+    </row>
+    <row r="72" spans="36:45">
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+    </row>
+    <row r="73" spans="36:45">
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+    </row>
+    <row r="74" spans="36:45">
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+    </row>
+    <row r="75" spans="36:45">
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+    </row>
+    <row r="76" spans="36:45">
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+    </row>
+    <row r="77" spans="36:45">
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+    </row>
+    <row r="78" spans="36:45">
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+    </row>
+    <row r="79" spans="36:45">
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+    </row>
+    <row r="80" spans="36:45">
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+    </row>
+    <row r="81" spans="36:39">
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+    </row>
+    <row r="82" spans="36:39">
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AV82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT27" sqref="AT27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="54" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="57">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="A3" s="1">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="A4" s="1">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+    </row>
+    <row r="5" spans="1:48">
+      <c r="A5" s="1">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="1">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="1">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" s="1">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="1">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" s="1">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" s="1">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="A12" s="1">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" s="1">
+        <v>122</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" s="1">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+    </row>
+    <row r="15" spans="1:48">
+      <c r="A15" s="1">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+    </row>
+    <row r="16" spans="1:48">
+      <c r="A16" s="1">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+    </row>
+    <row r="17" spans="1:46">
+      <c r="A17" s="1">
+        <v>126</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" s="1">
+        <v>127</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
@@ -7601,30 +9942,34 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
+      <c r="AP18" s="4"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="1:45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:46">
+      <c r="A19" s="1">
+        <v>128</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -7648,30 +9993,34 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
+      <c r="AQ19" s="4"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="1:45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:46">
+      <c r="A20" s="1">
+        <v>129</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -7695,30 +10044,34 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
+      <c r="AQ20" s="4"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="1:45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:46">
+      <c r="A21" s="1">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -7742,30 +10095,34 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
+      <c r="AQ21" s="4"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="1:45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+    <row r="22" spans="1:46">
+      <c r="A22" s="1">
+        <v>131</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -7789,30 +10146,34 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
+      <c r="AQ22" s="4"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="1:45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+    <row r="23" spans="1:46">
+      <c r="A23" s="1">
+        <v>132</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -7834,7 +10195,19 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="AJ23" s="1"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="5"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -7842,12 +10215,16 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
+      <c r="AR23" s="4"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="1:45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:46">
+      <c r="A24" s="1">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -7869,7 +10246,19 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="AJ24" s="1"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="5"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
@@ -7877,12 +10266,16 @@
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
+      <c r="AR24" s="4"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="1:45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:46">
+      <c r="A25" s="1">
+        <v>134</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -7904,7 +10297,19 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="AJ25" s="1"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="5"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -7912,12 +10317,16 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-    </row>
-    <row r="26" spans="1:45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="A26" s="1">
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -7939,7 +10348,19 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-      <c r="AJ26" s="1"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="5"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
@@ -7947,11 +10368,34 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-    </row>
-    <row r="27" spans="1:45">
-      <c r="AJ27" s="1"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="A27" s="1">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="5"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -7961,9 +10405,27 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
-    </row>
-    <row r="28" spans="1:45">
-      <c r="AJ28" s="1"/>
+      <c r="AT27" s="7"/>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="5"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -7974,8 +10436,25 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="1:45">
-      <c r="AJ29" s="1"/>
+    <row r="29" spans="1:46">
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="5"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
@@ -7986,8 +10465,25 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="1:45">
-      <c r="AJ30" s="1"/>
+    <row r="30" spans="1:46">
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="5"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
@@ -7998,8 +10494,25 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="1:45">
-      <c r="AJ31" s="1"/>
+    <row r="31" spans="1:46">
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="5"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
@@ -8010,8 +10523,25 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="1:45">
-      <c r="AJ32" s="1"/>
+    <row r="32" spans="1:46">
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="5"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
@@ -8022,8 +10552,25 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="36:45">
-      <c r="AJ33" s="1"/>
+    <row r="33" spans="19:45">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="5"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
@@ -8034,8 +10581,25 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="36:45">
-      <c r="AJ34" s="1"/>
+    <row r="34" spans="19:45">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="5"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
@@ -8046,8 +10610,25 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="36:45">
-      <c r="AJ35" s="1"/>
+    <row r="35" spans="19:45">
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="5"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
@@ -8058,8 +10639,25 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="36:45">
-      <c r="AJ36" s="1"/>
+    <row r="36" spans="19:45">
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="5"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
@@ -8070,8 +10668,25 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="36:45">
-      <c r="AJ37" s="1"/>
+    <row r="37" spans="19:45">
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="5"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
@@ -8082,7 +10697,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="36:45">
+    <row r="38" spans="19:45">
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
@@ -8094,7 +10709,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="36:45">
+    <row r="39" spans="19:45">
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
@@ -8106,7 +10721,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="36:45">
+    <row r="40" spans="19:45">
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
@@ -8118,7 +10733,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="36:45">
+    <row r="41" spans="19:45">
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
@@ -8130,7 +10745,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="36:45">
+    <row r="42" spans="19:45">
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -8142,7 +10757,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="36:45">
+    <row r="43" spans="19:45">
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
@@ -8154,7 +10769,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="36:45">
+    <row r="44" spans="19:45">
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
@@ -8166,7 +10781,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="36:45">
+    <row r="45" spans="19:45">
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
@@ -8178,7 +10793,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="36:45">
+    <row r="46" spans="19:45">
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -8190,7 +10805,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
     </row>
-    <row r="47" spans="36:45">
+    <row r="47" spans="19:45">
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
@@ -8202,7 +10817,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="36:45">
+    <row r="48" spans="19:45">
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -8572,6 +11187,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -8580,14 +11196,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
@@ -12437,7 +15053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -16318,7 +18934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -20352,7 +22968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -24161,15 +26777,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS97"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:AB78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE78" sqref="AE78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Traceability Record/MOBILE/TR mob .xlsx
+++ b/Traceability Record/MOBILE/TR mob .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="301">
   <si>
     <t>No</t>
   </si>
@@ -853,6 +853,84 @@
   <si>
     <t>M-SRS-136</t>
   </si>
+  <si>
+    <t>M-AD-18</t>
+  </si>
+  <si>
+    <t>M-AD-19</t>
+  </si>
+  <si>
+    <t>M-AD-20</t>
+  </si>
+  <si>
+    <t>M-AD-21</t>
+  </si>
+  <si>
+    <t>M-AD-22</t>
+  </si>
+  <si>
+    <t>M-AD-23</t>
+  </si>
+  <si>
+    <t>M-AD-24</t>
+  </si>
+  <si>
+    <t>M-AD-25</t>
+  </si>
+  <si>
+    <t>M-AD-26</t>
+  </si>
+  <si>
+    <t>M-AD-27</t>
+  </si>
+  <si>
+    <t>M-AD-28</t>
+  </si>
+  <si>
+    <t>M-AD-29</t>
+  </si>
+  <si>
+    <t>M-AD-30</t>
+  </si>
+  <si>
+    <t>M-AD-31</t>
+  </si>
+  <si>
+    <t>M-AD-32</t>
+  </si>
+  <si>
+    <t>M-AD-33</t>
+  </si>
+  <si>
+    <t>M-AD-34</t>
+  </si>
+  <si>
+    <t>M-AD-35</t>
+  </si>
+  <si>
+    <t>M-AD-36</t>
+  </si>
+  <si>
+    <t>M-AD-37</t>
+  </si>
+  <si>
+    <t>M-AD-38</t>
+  </si>
+  <si>
+    <t>M-AD-39</t>
+  </si>
+  <si>
+    <t>M-AD-40</t>
+  </si>
+  <si>
+    <t>M-AD-41</t>
+  </si>
+  <si>
+    <t>M-AD-42</t>
+  </si>
+  <si>
+    <t>M-AD-43</t>
+  </si>
 </sst>
 </file>
 
@@ -4087,7 +4165,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -6825,7 +6902,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -8924,7 +9000,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -8940,7 +9015,7 @@
   </sheetPr>
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
@@ -11187,7 +11262,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -11201,19 +11275,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS82"/>
+  <dimension ref="A1:AT82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="AQ42" sqref="AQ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="45" width="3.5" customWidth="1"/>
+    <col min="3" max="46" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="57">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="57">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11346,9 +11420,14 @@
       <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45">
+      <c r="AS1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11399,7 +11478,7 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11450,7 +11529,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:46">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11501,7 +11580,7 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:46">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11552,7 +11631,7 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:46">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11603,7 +11682,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:46">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11654,7 +11733,7 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:46">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11705,7 +11784,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:46">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11756,7 +11835,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:46">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11807,7 +11886,7 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:46">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11858,7 +11937,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:46">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11909,7 +11988,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:46">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11960,7 +12039,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:46">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -12011,7 +12090,7 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:46">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -12062,7 +12141,7 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:46">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12216,6 +12295,12 @@
       <c r="AS18" s="1"/>
     </row>
     <row r="19" spans="1:45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -12233,7 +12318,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="4"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -12261,6 +12346,12 @@
       <c r="AS19" s="1"/>
     </row>
     <row r="20" spans="1:45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -12279,7 +12370,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="U20" s="4"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -12306,6 +12397,12 @@
       <c r="AS20" s="1"/>
     </row>
     <row r="21" spans="1:45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -12325,7 +12422,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="4"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -12351,6 +12448,12 @@
       <c r="AS21" s="1"/>
     </row>
     <row r="22" spans="1:45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -12371,7 +12474,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="W22" s="4"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -12396,6 +12499,12 @@
       <c r="AS22" s="1"/>
     </row>
     <row r="23" spans="1:45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -12417,7 +12526,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+      <c r="X23" s="4"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -12441,6 +12550,12 @@
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="1:45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -12463,7 +12578,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="4"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -12486,6 +12601,12 @@
       <c r="AS24" s="1"/>
     </row>
     <row r="25" spans="1:45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -12509,7 +12630,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -12531,6 +12652,12 @@
       <c r="AS25" s="1"/>
     </row>
     <row r="26" spans="1:45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -12555,7 +12682,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="4"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -12576,6 +12703,12 @@
       <c r="AS26" s="1"/>
     </row>
     <row r="27" spans="1:45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -12601,7 +12734,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
+      <c r="AB27" s="4"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -12621,6 +12754,12 @@
       <c r="AS27" s="1"/>
     </row>
     <row r="28" spans="1:45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -12647,7 +12786,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
+      <c r="AC28" s="4"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
@@ -12666,6 +12805,12 @@
       <c r="AS28" s="1"/>
     </row>
     <row r="29" spans="1:45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -12693,7 +12838,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
@@ -12711,6 +12856,12 @@
       <c r="AS29" s="1"/>
     </row>
     <row r="30" spans="1:45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -12739,7 +12890,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
+      <c r="AE30" s="4"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -12756,6 +12907,12 @@
       <c r="AS30" s="1"/>
     </row>
     <row r="31" spans="1:45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -12785,7 +12942,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
+      <c r="AF31" s="4"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
@@ -12801,6 +12958,12 @@
       <c r="AS31" s="1"/>
     </row>
     <row r="32" spans="1:45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -12831,7 +12994,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="AG32" s="4"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -12845,7 +13008,13 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="3:45">
+    <row r="33" spans="1:46">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -12877,7 +13046,7 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
+      <c r="AH33" s="4"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -12890,7 +13059,13 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="3:45">
+    <row r="34" spans="1:46">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -12923,7 +13098,7 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
+      <c r="AI34" s="4"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
@@ -12935,7 +13110,13 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="3:45">
+    <row r="35" spans="1:46">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -12969,7 +13150,7 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
+      <c r="AJ35" s="4"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
@@ -12980,7 +13161,13 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="3:45">
+    <row r="36" spans="1:46">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -13015,7 +13202,7 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
+      <c r="AK36" s="4"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
@@ -13025,7 +13212,13 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="3:45">
+    <row r="37" spans="1:46">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -13061,7 +13254,7 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
+      <c r="AL37" s="4"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
@@ -13070,7 +13263,13 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="3:45">
+    <row r="38" spans="1:46">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -13107,7 +13306,7 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
+      <c r="AM38" s="4"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
@@ -13115,7 +13314,13 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="3:45">
+    <row r="39" spans="1:46">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -13153,14 +13358,20 @@
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
+      <c r="AN39" s="4"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="3:45">
+    <row r="40" spans="1:46">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -13199,13 +13410,19 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
+      <c r="AO40" s="4"/>
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="3:45">
+    <row r="41" spans="1:46">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -13245,12 +13462,18 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
+      <c r="AP41" s="4"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="3:45">
+    <row r="42" spans="1:46">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -13291,11 +13514,17 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
+      <c r="AQ42" s="4"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="3:45">
+    <row r="43" spans="1:46">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -13337,10 +13566,16 @@
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-    </row>
-    <row r="44" spans="3:45">
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+    </row>
+    <row r="44" spans="1:46">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -13384,8 +13619,9 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
-    </row>
-    <row r="45" spans="3:45">
+      <c r="AT44" s="7"/>
+    </row>
+    <row r="45" spans="1:46">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -13430,7 +13666,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="3:45">
+    <row r="46" spans="1:46">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -13475,7 +13711,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
     </row>
-    <row r="47" spans="3:45">
+    <row r="47" spans="1:46">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -13520,7 +13756,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="3:45">
+    <row r="48" spans="1:46">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -15045,6 +15281,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/Traceability Record/MOBILE/TR mob .xlsx
+++ b/Traceability Record/MOBILE/TR mob .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="329">
   <si>
     <t>No</t>
   </si>
@@ -1008,6 +1008,12 @@
   </si>
   <si>
     <t>M-SQ-42</t>
+  </si>
+  <si>
+    <t>DB-15</t>
+  </si>
+  <si>
+    <t>DB-16</t>
   </si>
 </sst>
 </file>
@@ -15266,7 +15272,7 @@
   </sheetPr>
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
@@ -19269,7 +19275,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -23345,8 +23350,8 @@
   </sheetPr>
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24221,6 +24226,12 @@
       <c r="AS15" s="1"/>
     </row>
     <row r="16" spans="1:48">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -24258,14 +24269,20 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="3:45">
+    <row r="17" spans="1:45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -24275,7 +24292,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -24310,7 +24327,7 @@
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="3:45">
+    <row r="18" spans="1:45">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -24354,7 +24371,7 @@
       <c r="AQ18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="3:45">
+    <row r="19" spans="1:45">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -24399,7 +24416,7 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="3:45">
+    <row r="20" spans="1:45">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -24444,7 +24461,7 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="3:45">
+    <row r="21" spans="1:45">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -24489,7 +24506,7 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="3:45">
+    <row r="22" spans="1:45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -24534,7 +24551,7 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="3:45">
+    <row r="23" spans="1:45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -24579,7 +24596,7 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="3:45">
+    <row r="24" spans="1:45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -24624,7 +24641,7 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="3:45">
+    <row r="25" spans="1:45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -24669,7 +24686,7 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="3:45">
+    <row r="26" spans="1:45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -24714,7 +24731,7 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="3:45">
+    <row r="27" spans="1:45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -24759,7 +24776,7 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="3:45">
+    <row r="28" spans="1:45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -24804,7 +24821,7 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="3:45">
+    <row r="29" spans="1:45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -24849,7 +24866,7 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="3:45">
+    <row r="30" spans="1:45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -24894,7 +24911,7 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="3:45">
+    <row r="31" spans="1:45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -24939,7 +24956,7 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="3:45">
+    <row r="32" spans="1:45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -27184,6 +27201,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/Traceability Record/MOBILE/TR mob .xlsx
+++ b/Traceability Record/MOBILE/TR mob .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="URS-SRS" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="317">
   <si>
     <t>No</t>
   </si>
@@ -970,6 +970,15 @@
   <si>
     <t>M-SRS-92</t>
   </si>
+  <si>
+    <t>M-SQ-43</t>
+  </si>
+  <si>
+    <t>M-SQ-44</t>
+  </si>
+  <si>
+    <t>M-SQ-45</t>
+  </si>
 </sst>
 </file>
 
@@ -4533,7 +4542,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -7652,7 +7660,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -7668,7 +7675,7 @@
   </sheetPr>
   <dimension ref="A1:AX82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
@@ -10290,7 +10297,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -16489,8 +16495,8 @@
   </sheetPr>
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18226,7 +18232,7 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:48">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -18277,7 +18283,7 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:48">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -18328,7 +18334,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:48">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -18379,7 +18385,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:48">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -18430,7 +18436,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:48">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -18481,7 +18487,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:48">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -18532,7 +18538,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:48">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -18583,7 +18589,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:48">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -18634,7 +18640,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:48">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -18685,7 +18691,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:48">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -18737,7 +18743,7 @@
       <c r="AS42" s="4"/>
       <c r="AT42" s="7"/>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:48">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -18787,7 +18793,13 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:48">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -18831,8 +18843,15 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
-    </row>
-    <row r="45" spans="1:46">
+      <c r="AU44" s="7"/>
+    </row>
+    <row r="45" spans="1:48">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -18876,8 +18895,15 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
-    </row>
-    <row r="46" spans="1:46">
+      <c r="AV45" s="7"/>
+    </row>
+    <row r="46" spans="1:48">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -18921,8 +18947,9 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
-    </row>
-    <row r="47" spans="1:46">
+      <c r="AV46" s="7"/>
+    </row>
+    <row r="47" spans="1:48">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -18967,7 +18994,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:48">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -20492,6 +20519,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
